--- a/medicine/Médecine vétérinaire/Jacques_Euzéby/Jacques_Euzéby.xlsx
+++ b/medicine/Médecine vétérinaire/Jacques_Euzéby/Jacques_Euzéby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Euz%C3%A9by</t>
+          <t>Jacques_Euzéby</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Achille Marie Euzéby est un parasitologiste français né le 11 août 1920 à Bagnols-sur-Cèze, et décédé à Lyon le 16 avril 2010[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Achille Marie Euzéby est un parasitologiste français né le 11 août 1920 à Bagnols-sur-Cèze, et décédé à Lyon le 16 avril 2010.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Euz%C3%A9by</t>
+          <t>Jacques_Euzéby</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,46 +525,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Fils aîné d'une famille de Bagnols-sur-Cèze (son père Ernest Euzéby en a été le maire de 1932 à 1942[2]), il a notamment été l'élève de figures renommées de la parasitologie : Gabriel Marotel (professeur à l'École vétérinaire de Lyon), André Brizard (professeur à l'École vétérinaire de Toulouse), Jean Guilhon (professeur à l'École vétérinaire d'Alfort), mais aussi Émile Brumpt (professeur à la Faculté de médecine de Paris) et Robert-Philippe Dollfus (chercheur au Muséum national d'histoire naturelle de Paris).
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils aîné d'une famille de Bagnols-sur-Cèze (son père Ernest Euzéby en a été le maire de 1932 à 1942), il a notamment été l'élève de figures renommées de la parasitologie : Gabriel Marotel (professeur à l'École vétérinaire de Lyon), André Brizard (professeur à l'École vétérinaire de Toulouse), Jean Guilhon (professeur à l'École vétérinaire d'Alfort), mais aussi Émile Brumpt (professeur à la Faculté de médecine de Paris) et Robert-Philippe Dollfus (chercheur au Muséum national d'histoire naturelle de Paris).
 Docteur vétérinaire de l'École vétérinaire de Lyon en 1943 (avec une thèse consacrée à l'hygiène du lait), licencié ès sciences (chimie biologique, biologie générale, zoologie générale), agrégé des Écoles vétérinaires (parasitologie et maladies parasitaires, Jacques Euzéby est ensuite nommé professeur des Écoles vétérinaires et exerce son activité principalement à l'École nationale vétérinaire de Lyon.
-Carrière
-Docteur honoris causa des universités de Turin (Italie) et de Timisoara (Roumanie), Jacques Euzéby a été élu à l’Académie nationale de médecine et à l’Académie vétérinaire de France. Il était également membre de l’Académie royale des sciences vétérinaires d’Espagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jacques_Euzéby</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Euz%C3%A9by</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur honoris causa des universités de Turin (Italie) et de Timisoara (Roumanie), Jacques Euzéby a été élu à l’Académie nationale de médecine et à l’Académie vétérinaire de France. Il était également membre de l’Académie royale des sciences vétérinaires d’Espagne.
 Jacques Euzéby a bâti sa stature internationale grâce à ses travaux sur les parasites (champignons inclus) et les maladies parasitaires, sur la parasitologie comparée et sur les zoonoses parasitaires. Ce rayonnement lui a valu le statut de membre d’honneur de la Société de pathologie exotique, de la Société française de parasitologie, du Collège européen de parasitologie vétérinaire (European College of Veterinary Parasitology) et la Word Association for The Advancement of Veterinary Parasitology (WAAVP), dont il fut également le président.
 Bien qu’ayant refusé toutes les décorations qui lui ont été proposées, Jacques Euzéby a obtenu le prix Emile Brumpt et le prix de la WAAVP.
 Jacques Euzéby est l’auteur de 25 ouvrages et de plusieurs centaines d’articles consacrés, entre autres, à l’épidémiologie et à la parasitologie générale des maladies parasitaires, aux helminthoses, aux nématodoses, aux cestodoses, aux trématodoses, aux protozooses, aux acarioses et entomoses, aux mycoses et aux zoonoses parasitaires. Ses recherches ont porté sur l'étude expérimentale des anthelminthiques gastro-intestinaux chez le mouton, l'épidémiologie de l'échinococcose alvéolaire (il fut le premier à identifier le parasite en France), l'immunologie des coccidioses et les anthropozoonoses d'origine parasitaire.
 À partir de 1955, il a rempli de nombreuses missions d’enseignement et de recherche pour l’Organisation mondiale pour l'agriculture et l'alimentation (FAO), l’Organisation mondiale de la santé (OMS), l’Office international des épizooties (OIE, devenue Organisation mondiale de la santé animale), le ministère des Affaires étrangères, et a enseigné à la Faculté de médecine vétérinaire et zootechnique de Mexico, au Paraguay, à Saigon, à Nairobi, à Asuncion, à Curitiba, ou à la Faculté de médecine vétérinaire de Mossoul (Irak).
-Vie personnelle
-Jacques Euzéby est le père de six enfants, dont Alain Euzéby, professeur de sciences économiques à l’Institut d’études politiques de Grenoble, spécialiste du financement de la protection sociale et auteur de plusieurs ouvrages et articles consacrés aux effets de la mondialisation sur les systèmes de protection sociale européens, et Jean Euzéby, professeur de microbiologie à l'École nationale vétérinaire de Toulouse et spécialiste mondialement reconnu de taxonomie bactérienne.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jacques_Euz%C3%A9by</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Euzéby</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine vétérinaire/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Euz%C3%A9by</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie personnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Euzéby est le père de six enfants, dont Alain Euzéby, professeur de sciences économiques à l’Institut d’études politiques de Grenoble, spécialiste du financement de la protection sociale et auteur de plusieurs ouvrages et articles consacrés aux effets de la mondialisation sur les systèmes de protection sociale européens, et Jean Euzéby, professeur de microbiologie à l'École nationale vétérinaire de Toulouse et spécialiste mondialement reconnu de taxonomie bactérienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Euzéby</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Euz%C3%A9by</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Des procédés de numération des microbes du lait, thèse de doctorat vétérinaire, faculté de médecine de Lyon, 1943
 Le parasitisme en pathologie aviaire, 1950, éditions Vigot, Paris, 105 pages
